--- a/Assets/Data/PointsOfSail.xlsx
+++ b/Assets/Data/PointsOfSail.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE1FDA-D2AC-4B0A-BF09-DF0FCD67210B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF540F6-67A7-4E51-82F8-3A24149634C5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsOfSail" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -422,7 +423,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -452,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>172.1</v>
@@ -472,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>162.1</v>
@@ -492,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>135.1</v>
@@ -512,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>120.1</v>
@@ -532,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -552,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>240.1</v>
@@ -572,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>225.1</v>
@@ -592,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>198.1</v>
@@ -612,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>188.1</v>
@@ -632,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>180.1</v>
@@ -645,6 +646,109 @@
       </c>
       <c r="F11">
         <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2111EB-5A1B-44C5-A5EB-F2BA8C914CFC}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
